--- a/pages/2024-05-01-GLMM/data/tidy/visit.xlsx
+++ b/pages/2024-05-01-GLMM/data/tidy/visit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\git-harper-data-science\website\pages\2024-05-01-GLMM\data\tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A5371D-4BF4-4644-9D9D-897FCE666DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF47127-37E9-4C9D-9342-2E03756718F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6216" yWindow="2700" windowWidth="23040" windowHeight="12660" xr2:uid="{5AC47DCB-681D-40A3-94E6-FA1E8622DC6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{5AC47DCB-681D-40A3-94E6-FA1E8622DC6A}"/>
   </bookViews>
   <sheets>
     <sheet name="visit" sheetId="2" r:id="rId1"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA208C26-0087-45C0-9790-31022704185B}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2506,12 +2506,13 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="121.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
